--- a/src/main/resources/target/multilingual.xlsx
+++ b/src/main/resources/target/multilingual.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supermoon\Google 드라이브\repositories\java\sdm-java-multilingual\src\main\resources\target\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA41E98-3E17-4BCE-822B-1E0514DBA97E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1140" windowWidth="23256" windowHeight="14016" xr2:uid="{380111C5-577A-4F5E-B8F9-7A88A26CDDA3}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Detecting Abuser</t>
   </si>
@@ -82,122 +66,418 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>en</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>kr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>바</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>아</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>abusing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>abusing.apiSearchPeriod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+  </si>
+  <si/>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <i/>
       <sz val="7.2"/>
       <name val="Fira Code"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -207,52 +487,362 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -552,164 +1142,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF3EA34-3A1F-43E6-BDD8-3E4801E68812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.69921875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" style="5" width="25.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="5" width="32.75500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="5" width="23.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="16384" style="5" width="8.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
+      <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
+      <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
+      <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <v>4</v>
       </c>
+      <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="8">
         <v>5</v>
       </c>
+      <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="8">
         <v>6</v>
       </c>
+      <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="8">
         <v>7</v>
       </c>
+      <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="8">
         <v>8</v>
       </c>
+      <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="8">
         <v>9</v>
       </c>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>